--- a/example/data_ap_major_volatile.xlsx
+++ b/example/data_ap_major_volatile.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Downloads/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D93E21-A36F-964F-98FA-0E00B3996C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25260" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>sample</t>
   </si>
@@ -71,9 +77,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>OXYGEN NUMBER</t>
   </si>
   <si>
     <t>Ap1</t>
@@ -88,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,13 +553,10 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -561,15 +607,12 @@
         <v>0.5</v>
       </c>
       <c r="S2">
-        <v>98.81000000000002</v>
-      </c>
-      <c r="T2">
-        <v>25.89795036358714</v>
+        <v>98.810000000000016</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -620,15 +663,12 @@
         <v>0.4</v>
       </c>
       <c r="S3">
-        <v>98.21000000000002</v>
-      </c>
-      <c r="T3">
-        <v>25.74806911091732</v>
+        <v>98.210000000000022</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -679,10 +719,7 @@
         <v>0.8</v>
       </c>
       <c r="S4">
-        <v>98.91000000000001</v>
-      </c>
-      <c r="T4">
-        <v>25.8873555573784</v>
+        <v>98.910000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/example/data_ap_major_volatile.xlsx
+++ b/example/data_ap_major_volatile.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Downloads/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/pyAp/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D93E21-A36F-964F-98FA-0E00B3996C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADAA0C3-D76D-AE48-BB78-4A510BF153C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25260" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="25260" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -490,7 +502,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
